--- a/DB.xlsx
+++ b/DB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Net Banking Project\NetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5353A0A8-744B-412E-A8E3-9EEB3363B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A31932-B0C9-46A1-BF5C-52291DB1409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
-  <si>
-    <t>dotnetbanking</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>AccountFields</t>
   </si>
@@ -48,48 +45,18 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>email id</t>
   </si>
   <si>
-    <t>Aadhaar card number</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>Residential Address</t>
-  </si>
-  <si>
-    <t>Address Line 1</t>
-  </si>
-  <si>
-    <t>Address Line 2</t>
-  </si>
-  <si>
-    <t>Landmark</t>
-  </si>
-  <si>
     <t>Middle name</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Pin code</t>
-  </si>
-  <si>
-    <t>Permanent Address</t>
-  </si>
-  <si>
     <t>Occupation details</t>
   </si>
   <si>
@@ -102,34 +69,156 @@
     <t>Gross Annual Income</t>
   </si>
   <si>
-    <t>Credit card</t>
-  </si>
-  <si>
-    <t>Debit card</t>
-  </si>
-  <si>
-    <t>NetBanking ( Table )</t>
-  </si>
-  <si>
-    <t>NetBanking Credentias</t>
-  </si>
-  <si>
-    <t>Transactoin History(Table)</t>
-  </si>
-  <si>
-    <t>beneficiary’s account.</t>
-  </si>
-  <si>
-    <t>beneficiary’s account.(Table)</t>
+    <t>ModeOfTransaction</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Modes</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nick name (Optional)</t>
+  </si>
+  <si>
+    <t>Mode of Transaction</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Maturity Instruction (except for Neft)</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>TransactionDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadhaar card number </t>
+  </si>
+  <si>
+    <t>Refference ID</t>
+  </si>
+  <si>
+    <t>Transaction Reference ID</t>
+  </si>
+  <si>
+    <t>NetBanking Password</t>
+  </si>
+  <si>
+    <t>Transaction Password</t>
+  </si>
+  <si>
+    <t>Debit card Expiry dd/yy</t>
+  </si>
+  <si>
+    <t>Credit card Expiry dd/yy</t>
+  </si>
+  <si>
+    <t>Debit card CVV</t>
+  </si>
+  <si>
+    <t>Credit card CVV</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>Residential Address Line 1</t>
+  </si>
+  <si>
+    <t>Residential Address Line 2</t>
+  </si>
+  <si>
+    <t>Residential Landmark</t>
+  </si>
+  <si>
+    <t>Residential State</t>
+  </si>
+  <si>
+    <t>Residential City</t>
+  </si>
+  <si>
+    <t>Residential Pin code</t>
+  </si>
+  <si>
+    <t>Permanent Address Line 1</t>
+  </si>
+  <si>
+    <t>Permanent Address Line 2</t>
+  </si>
+  <si>
+    <t>Permanent Landmark</t>
+  </si>
+  <si>
+    <t>Permanent State</t>
+  </si>
+  <si>
+    <t>Permanent City</t>
+  </si>
+  <si>
+    <t>Permanent Pin code</t>
+  </si>
+  <si>
+    <t>NetBanking ( FK )</t>
+  </si>
+  <si>
+    <t>Debit Card  ( FK )</t>
+  </si>
+  <si>
+    <t>Credit Card  ( FK )</t>
+  </si>
+  <si>
+    <t>Transactoin History(Table)  ( FK )</t>
+  </si>
+  <si>
+    <t>User ID ( PK )</t>
+  </si>
+  <si>
+    <t>Debit card number ( PK )</t>
+  </si>
+  <si>
+    <t>Credit card number ( PK )</t>
+  </si>
+  <si>
+    <t>Net banking Credentials</t>
+  </si>
+  <si>
+    <t>Debit Card Credentials</t>
+  </si>
+  <si>
+    <t>DotNetBanking</t>
+  </si>
+  <si>
+    <t>Transaction amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,12 +241,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,177 +561,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C40"/>
+  <dimension ref="A2:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="C57" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>